--- a/paper/pldi21/img/figure8.xlsx
+++ b/paper/pldi21/img/figure8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/naldo/project/safe_ds/paper/pldi21/img/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0C5D2C-19B4-864C-91D6-73951F2650DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC990DF-840E-344B-86AF-702DC6DB3C24}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="26640" xr2:uid="{BB4B06E6-68BB-3349-B241-15D9A0E1785F}"/>
   </bookViews>
@@ -1036,7 +1036,7 @@
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.3902537544688934E-2"/>
+                  <c:x val="-3.2289565848128643E-2"/>
                   <c:y val="0"/>
                 </c:manualLayout>
               </c:layout>
@@ -1194,8 +1194,8 @@
               <c:idx val="6"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="5.4638577153332722E-2"/>
-                  <c:y val="-1.76194905590629E-17"/>
+                  <c:x val="6.383206674938427E-2"/>
+                  <c:y val="0"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="ctr"/>
@@ -1462,7 +1462,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -1510,9 +1510,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.32692020329708071"/>
-          <c:y val="2.0447779521613415E-2"/>
-          <c:w val="0.38340247720049192"/>
+          <c:x val="0.30240421715266907"/>
+          <c:y val="2.0448049836559359E-2"/>
+          <c:w val="0.44775709192904423"/>
           <c:h val="7.7620786598266822E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -2136,16 +2136,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>734723</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>194010</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>424607</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>123865</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>415925</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>118140</xdr:rowOff>
+      <xdr:colOff>441325</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>47995</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2245,12 +2245,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.46001</cdr:x>
-      <cdr:y>0.12735</cdr:y>
+      <cdr:x>0.47677</cdr:x>
+      <cdr:y>0.10838</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.46001</cdr:x>
-      <cdr:y>0.80717</cdr:y>
+      <cdr:x>0.47677</cdr:x>
+      <cdr:y>0.7882</cdr:y>
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
@@ -2265,8 +2265,8 @@
       </cdr:nvCxnSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipV="1">
-          <a:off x="2234354" y="223066"/>
-          <a:ext cx="0" cy="1190774"/>
+          <a:off x="1975830" y="189983"/>
+          <a:ext cx="0" cy="1191678"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
           <a:avLst/>
@@ -2296,11 +2296,11 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.4464</cdr:x>
+      <cdr:x>0.46312</cdr:x>
       <cdr:y>0.65246</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.62465</cdr:x>
+      <cdr:x>0.64137</cdr:x>
       <cdr:y>0.78923</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
@@ -2316,8 +2316,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2168247" y="1142849"/>
-          <a:ext cx="865795" cy="239565"/>
+          <a:off x="2249471" y="1142850"/>
+          <a:ext cx="865794" cy="239566"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -2423,6 +2423,108 @@
         </a:p>
       </cdr:txBody>
     </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.01655</cdr:x>
+      <cdr:y>0.2771</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.9766</cdr:x>
+      <cdr:y>0.2771</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="6" name="직선 연결선[R] 3">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65CD8EFD-FB63-FB4C-B889-716368696A60}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="80218" y="485735"/>
+          <a:ext cx="4654649" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.01678</cdr:x>
+      <cdr:y>0.261</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.9766</cdr:x>
+      <cdr:y>0.261</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="10" name="직선 연결선[R] 3">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0122AC6E-7EF9-7A41-9B3B-647945C0C174}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="81364" y="457513"/>
+          <a:ext cx="4653503" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
   </cdr:relSizeAnchor>
 </c:userShapes>
 </file>
@@ -3611,8 +3713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8394C31-AD0A-F94D-884E-2FFAB8A0BC21}">
   <dimension ref="A1:O307"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H8" zoomScale="344" zoomScaleNormal="400" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView tabSelected="1" topLeftCell="K10" zoomScale="400" zoomScaleNormal="400" workbookViewId="0">
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
